--- a/scrap-imoveis/output.xlsx
+++ b/scrap-imoveis/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,32 +508,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.quintoandar.com.br/imovel/894922170/alugar/casa-3-quartos-jardim-jau-zona-leste-sao-paulo?from_route=%22search_results%22&amp;house_tags=newAd&amp;search_id=%22ae34781c-ecb4-4053-8fc4-771b2411fc01%22&amp;search_rank=%7B%22sortMode%22%3A%22relevance%22%2C%22searchMode%22%3A%22list%22%2C%22resultsOrigin%22%3A%22search%22%2C%22rank%22%3A0%2C%22personalization%22%3Atrue%7D</t>
+          <t>https://www.quintoandar.com.br/imovel/894123404/alugar/casa-2-quartos-vila-paulistana-sao-paulo?from_route=%22search_results%22&amp;house_tags=exclusivity&amp;search_id=%2287c5427d-7f51-46fa-8cbc-9a2d4da8341b%22&amp;search_rank=%7B%22sortMode%22%3A%22relevance%22%2C%22searchMode%22%3A%22list%22%2C%22resultsOrigin%22%3A%22search%22%2C%22rank%22%3A0%2C%22personalization%22%3Atrue%7D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R$ 1.121 total</t>
+          <t>R$ 1.813 total</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R$ 1.050 aluguel</t>
+          <t>R$ 1.739 aluguel</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>120 m² · 3 quartos</t>
+          <t>120 m² · 2 quartos · 1 vaga</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aluguel de casa, de 120 m² com 3 quartos e 2 banheiros em Jardim Jaú (zona Leste).</t>
+          <t>Casa em condomínio para alugar em Vila Paulistana de 120 m² com quintal.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Travessa Leandro dos Santos Pedro, Jardim Jaú (zona Leste) · São Paulo</t>
+          <t>Rua Jordão Camargo de Oliveira, Vila Paulistana · São Paulo</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -548,27 +548,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Não aceita</t>
+          <t>Aceita pet</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Até 3° andar</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 vaga</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2 banheiros</t>
+          <t>1 banheiro</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3 quartos (1 suíte)</t>
+          <t>2 quartos</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -580,32 +580,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.quintoandar.com.br/imovel/893357922/alugar/casa-3-quartos-jardim-oriental-sao-paulo?from_route=%22search_results%22&amp;house_tags=exclusivity&amp;house_tags=rentOnTermination&amp;search_id=%22ae34781c-ecb4-4053-8fc4-771b2411fc01%22&amp;search_rank=%7B%22sortMode%22%3A%22relevance%22%2C%22searchMode%22%3A%22list%22%2C%22resultsOrigin%22%3A%22search%22%2C%22rank%22%3A1%2C%22personalization%22%3Atrue%7D</t>
+          <t>https://www.quintoandar.com.br/imovel/894355389/alugar/apartamento-2-quartos-limao-sao-paulo?from_route=%22search_results%22&amp;house_tags=exclusivity&amp;house_tags=rentOnTermination&amp;house_tags=rentPriceDecreased&amp;search_id=%2287c5427d-7f51-46fa-8cbc-9a2d4da8341b%22&amp;search_rank=%7B%22sortMode%22%3A%22relevance%22%2C%22searchMode%22%3A%22list%22%2C%22resultsOrigin%22%3A%22search%22%2C%22rank%22%3A1%2C%22personalization%22%3Atrue%7D</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R$ 1.696 total</t>
+          <t>R$ 1.961 total</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R$ 1.550 aluguel</t>
+          <t>R$ 1.675 aluguel</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85 m² · 3 quartos</t>
+          <t>85 m² · 2 quartos · 1 vaga</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Aluguel de casa mobiliada, de 85 m² com 3 quartos e 2 banheiros em Jardim Oriental.</t>
+          <t>Apartamento com 2 quartos.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rua Barrânia, Jardim Oriental · São Paulo</t>
+          <t>Avenida Gaspar Vaz da Cunha, Limão · São Paulo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mobiliado</t>
+          <t>Sem mobília</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -625,27 +625,603 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Até 3° andar</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1 vaga</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>1 banheiro</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2 quartos</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>85 m²</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.quintoandar.com.br/imovel/894641960/alugar/apartamento-2-quartos-vila-maria-sao-paulo?from_route=%22search_results%22&amp;house_tags=exclusivity&amp;house_tags=rentPriceDecreased&amp;search_id=%2287c5427d-7f51-46fa-8cbc-9a2d4da8341b%22&amp;search_rank=%7B%22sortMode%22%3A%22relevance%22%2C%22searchMode%22%3A%22list%22%2C%22resultsOrigin%22%3A%22search%22%2C%22rank%22%3A2%2C%22personalization%22%3Atrue%7D</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>R$ 1.904 total</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>R$ 1.400 aluguel</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80 m² · 2 quartos · 1 vaga</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Aluguel de apartamento, de 80 m² com 2 quartos, 1 banheiro e 1 vaga na garagem em Vila Maria.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Avenida Conceição, Vila Maria · São Paulo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Não próx.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sem mobília</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Não aceita</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4° a 7° andar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1 vaga</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1 banheiro</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2 quartos</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>80 m²</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.quintoandar.com.br/imovel/894886225/alugar/apartamento-2-quartos-jardim-sao-joao-jaragua-sao-paulo?from_route=%22search_results%22&amp;house_tags=exclusivity&amp;search_id=%2287c5427d-7f51-46fa-8cbc-9a2d4da8341b%22&amp;search_rank=%7B%22sortMode%22%3A%22relevance%22%2C%22searchMode%22%3A%22list%22%2C%22resultsOrigin%22%3A%22search%22%2C%22rank%22%3A3%2C%22personalization%22%3Atrue%7D</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>R$ 1.567 total</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>R$ 1.200 aluguel</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>92 m² · 2 quartos · 1 vaga</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Apartamento para alugar em Jardim Sao Joao (jaragua) de 92 m².</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rua Friedrich Von Voith, Jardim Sao Joao (jaragua) · São Paulo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Metrô próx.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sem mobília</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Aceita pet</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Até 3° andar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1 vaga</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1 banheiro</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2 quartos</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>92 m²</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.quintoandar.com.br/imovel/894026782/alugar/apartamento-2-quartos-gopouva-guarulhos?from_route=%22search_results%22&amp;house_tags=exclusivity&amp;search_id=%2287c5427d-7f51-46fa-8cbc-9a2d4da8341b%22&amp;search_rank=%7B%22sortMode%22%3A%22relevance%22%2C%22searchMode%22%3A%22list%22%2C%22resultsOrigin%22%3A%22search%22%2C%22rank%22%3A4%2C%22personalization%22%3Atrue%7D</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>R$ 1.936 total</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>R$ 1.650 aluguel</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>92 m² · 2 quartos · 1 vaga</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aluguel de apartamento, de 92 m² com 2 quartos, 1 banheiro e 1 vaga na garagem em Gopoúva.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rua Mario, Gopoúva · Guarulhos</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Não próx.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sem mobília</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Aceita pet</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Até 3° andar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1 vaga</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1 banheiro</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2 quartos</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>92 m²</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.quintoandar.com.br/imovel/894389738/alugar/apartamento-2-quartos-jardim-valeria-guarulhos?from_route=%22search_results%22&amp;house_tags=exclusivity&amp;house_tags=rentPriceDecreased&amp;search_id=%2287c5427d-7f51-46fa-8cbc-9a2d4da8341b%22&amp;search_rank=%7B%22sortMode%22%3A%22relevance%22%2C%22searchMode%22%3A%22list%22%2C%22resultsOrigin%22%3A%22search%22%2C%22rank%22%3A5%2C%22personalization%22%3Atrue%7D</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R$ 1.895 total</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>R$ 1.330 aluguel</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>82 m² · 2 quartos · 1 vaga</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Apartamento de 2 quartos para alugar. Com 1 vaga na garagem.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avenida Gaivota Preta, Jardim Valéria · Guarulhos</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Não próx.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sem mobília</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Aceita pet</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Até 3° andar</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1 vaga</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>2 banheiros</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>3 quartos (1 suíte)</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>85 m²</t>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2 quartos (1 suíte)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>82 m²</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.quintoandar.com.br/imovel/893514771/alugar/apartamento-2-quartos-canhema-diadema?from_route=%22search_results%22&amp;house_tags=exclusivity&amp;house_tags=rentPriceDecreased&amp;search_id=%2287c5427d-7f51-46fa-8cbc-9a2d4da8341b%22&amp;search_rank=%7B%22sortMode%22%3A%22relevance%22%2C%22searchMode%22%3A%22list%22%2C%22resultsOrigin%22%3A%22search%22%2C%22rank%22%3A6%2C%22personalization%22%3Atrue%7D</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>R$ 1.516 total</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>R$ 1.125 aluguel</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>80 m² · 2 quartos · 1 vaga</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aluguel de apartamento, de 80 m² com 2 quartos, 1 banheiro e 1 vaga na garagem em Canhema.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rua João Pessoa, Canhema · Diadema</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Não próx.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sem mobília</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Não aceita</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Até 3° andar</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1 vaga</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1 banheiro</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2 quartos</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>80 m²</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.quintoandar.com.br/imovel/893772723/alugar/apartamento-2-quartos-canhema-diadema?from_route=%22search_results%22&amp;house_tags=exclusivity&amp;search_id=%2287c5427d-7f51-46fa-8cbc-9a2d4da8341b%22&amp;search_rank=%7B%22sortMode%22%3A%22relevance%22%2C%22searchMode%22%3A%22list%22%2C%22resultsOrigin%22%3A%22search%22%2C%22rank%22%3A7%2C%22personalization%22%3Atrue%7D</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>R$ 1.651 total</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>R$ 1.100 aluguel</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>82 m² · 2 quartos · 1 vaga</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aluguel de apartamento, de 82 m² com 2 quartos, 1 banheiro e 1 vaga na garagem em Canhema.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rua João Pessoa, Canhema · Diadema</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Não próx.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sem mobília</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Aceita pet</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Até 3° andar</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1 vaga</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1 banheiro</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2 quartos</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>82 m²</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.quintoandar.com.br/imovel/894794561/alugar/apartamento-3-quartos-canhema-diadema?from_route=%22search_results%22&amp;house_tags=rentPriceDecreased&amp;search_id=%2287c5427d-7f51-46fa-8cbc-9a2d4da8341b%22&amp;search_rank=%7B%22sortMode%22%3A%22relevance%22%2C%22searchMode%22%3A%22list%22%2C%22resultsOrigin%22%3A%22search%22%2C%22rank%22%3A8%2C%22personalization%22%3Atrue%7D</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>R$ 1.822 total</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>R$ 1.160 aluguel</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>86 m² · 3 quartos · 1 vaga</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aluguel de apartamento, de 86 m² com 3 quartos, 1 banheiro e 1 vaga na garagem em Canhema.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rua Karl Huler, Canhema · Diadema</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Não próx.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sem mobília</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Não aceita</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Até 3° andar</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1 vaga</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1 banheiro</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>3 quartos</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>86 m²</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.quintoandar.com.br/imovel/894495212/alugar/apartamento-2-quartos-jardim-iporanga-guarulhos?from_route=%22search_results%22&amp;house_tags=rentPriceDecreased&amp;search_id=%2287c5427d-7f51-46fa-8cbc-9a2d4da8341b%22&amp;search_rank=%7B%22sortMode%22%3A%22relevance%22%2C%22searchMode%22%3A%22list%22%2C%22resultsOrigin%22%3A%22search%22%2C%22rank%22%3A9%2C%22personalization%22%3Atrue%7D</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>R$ 1.833 total</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>R$ 1.700 aluguel</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>80 m² · 2 quartos · 1 vaga</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Aluguel de apartamento, de 80 m² com 2 quartos, 1 banheiro e 1 vaga na garagem em Jardim Iporanga.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Travessa Ata, Jardim Iporanga · Guarulhos</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Não próx.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sem mobília</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Não aceita</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Até 3° andar</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1 vaga</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1 banheiro</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2 quartos</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>80 m²</t>
         </is>
       </c>
     </row>
